--- a/Dataset_description.xlsx
+++ b/Dataset_description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Project Tycho Level 2 Dataset Description</t>
   </si>
@@ -138,6 +138,33 @@
   </si>
   <si>
     <t>It seems that week number is a concantenation of the year + week of the year. The highest number in this attribute is 192548, so that means the last case was reported in 1925? It suppose that these dataset contains data from 1888-2014</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>We are assuming that 0 cases does not mean missing values, we will keep these observations.</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Analyze observations with loc_type='STATE' 288 cases</t>
   </si>
 </sst>
 </file>
@@ -190,7 +217,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,13 +235,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D17" totalsRowShown="0">
-  <autoFilter ref="A3:D17"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F21" totalsRowShown="0">
+  <autoFilter ref="A3:F21"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Attribute Name"/>
     <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
     <tableColumn id="4" name="Anomalies"/>
+    <tableColumn id="5" name="Assumption"/>
+    <tableColumn id="6" name="Action"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,17 +536,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
@@ -549,63 +584,78 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,8 +665,11 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -626,11 +679,14 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -640,11 +696,14 @@
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -654,11 +713,14 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -668,21 +730,21 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -693,7 +755,7 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -704,20 +766,53 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset_description.xlsx
+++ b/Dataset_description.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="dataset description" sheetId="1" r:id="rId1"/>
+    <sheet name="type_of_disease" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Project Tycho Level 2 Dataset Description</t>
   </si>
@@ -165,6 +166,156 @@
   </si>
   <si>
     <t>Analyze observations with loc_type='STATE' 288 cases</t>
+  </si>
+  <si>
+    <t>min(year)</t>
+  </si>
+  <si>
+    <t>max_year</t>
+  </si>
+  <si>
+    <t>BRUCELLOSIS [UNDULANT FEVER]</t>
+  </si>
+  <si>
+    <t>CHICKENPOX [VARICELLA]</t>
+  </si>
+  <si>
+    <t>CHLAMYDIA</t>
+  </si>
+  <si>
+    <t>CHOLERA</t>
+  </si>
+  <si>
+    <t>CRYPTOSPORIDIOSIS</t>
+  </si>
+  <si>
+    <t>DENGUE</t>
+  </si>
+  <si>
+    <t>DIPHTHERIA</t>
+  </si>
+  <si>
+    <t>DYSENTERY</t>
+  </si>
+  <si>
+    <t>EHRLICHIOSIS/ANAPLASMOSIS</t>
+  </si>
+  <si>
+    <t>ENCEPHALITIS</t>
+  </si>
+  <si>
+    <t>ESCHERICHIA COLI</t>
+  </si>
+  <si>
+    <t>GIARDIASIS</t>
+  </si>
+  <si>
+    <t>GONORRHEA</t>
+  </si>
+  <si>
+    <t>HAEMOPHILUS INFLUENZAE</t>
+  </si>
+  <si>
+    <t>HEPATITIS</t>
+  </si>
+  <si>
+    <t>INFLUENZA</t>
+  </si>
+  <si>
+    <t>LEGIONELLOSIS</t>
+  </si>
+  <si>
+    <t>LEPROSY</t>
+  </si>
+  <si>
+    <t>LYME DISEASE</t>
+  </si>
+  <si>
+    <t>MALARIA</t>
+  </si>
+  <si>
+    <t>MEASLES</t>
+  </si>
+  <si>
+    <t>MENINGITIS</t>
+  </si>
+  <si>
+    <t>MENINGOCOCCAL DISEASE</t>
+  </si>
+  <si>
+    <t>MUMPS</t>
+  </si>
+  <si>
+    <t>PELLAGRA</t>
+  </si>
+  <si>
+    <t>PNEUMONIA</t>
+  </si>
+  <si>
+    <t>POLIOMYELITIS</t>
+  </si>
+  <si>
+    <t>RABIES IN ANIMALS</t>
+  </si>
+  <si>
+    <t>ROCKY MOUNTAIN SPOTTED FEVER</t>
+  </si>
+  <si>
+    <t>SALMONELLOSIS</t>
+  </si>
+  <si>
+    <t>SCARLET FEVER</t>
+  </si>
+  <si>
+    <t>SHIGELLOSIS</t>
+  </si>
+  <si>
+    <t>SMALLPOX</t>
+  </si>
+  <si>
+    <t>STREPTOCOCCUS PNEUMONIAE INVASIVE DISEASE</t>
+  </si>
+  <si>
+    <t>SYPHILIS</t>
+  </si>
+  <si>
+    <t>TRICHINIASIS</t>
+  </si>
+  <si>
+    <t>TUBERCULOSIS [PHTHISIS PULMONALIS]</t>
+  </si>
+  <si>
+    <t>TULAREMIA</t>
+  </si>
+  <si>
+    <t>TYPHOID FEVER [ENTERIC FEVER]</t>
+  </si>
+  <si>
+    <t>TYPHUS FEVER</t>
+  </si>
+  <si>
+    <t>VARIOLOID</t>
+  </si>
+  <si>
+    <t>WEST NILE DISEASE</t>
+  </si>
+  <si>
+    <t>WHOOPING COUGH [PERTUSSIS]</t>
+  </si>
+  <si>
+    <t>YELLOW FEVER</t>
+  </si>
+  <si>
+    <t>number of events</t>
+  </si>
+  <si>
+    <t>Keep it?</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Number of years reported</t>
   </si>
 </sst>
 </file>
@@ -244,6 +395,24 @@
     <tableColumn id="4" name="Anomalies"/>
     <tableColumn id="5" name="Assumption"/>
     <tableColumn id="6" name="Action"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G45" totalsRowShown="0">
+  <autoFilter ref="A1:G45"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="disease"/>
+    <tableColumn id="2" name="min(year)"/>
+    <tableColumn id="3" name="max_year"/>
+    <tableColumn id="4" name="number of events"/>
+    <tableColumn id="5" name="Number of years reported">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Keep it?"/>
+    <tableColumn id="7" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -538,9 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -821,4 +988,844 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1952</v>
+      </c>
+      <c r="C2">
+        <v>1981</v>
+      </c>
+      <c r="D2">
+        <v>7237</v>
+      </c>
+      <c r="E2">
+        <f>C2-B2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>1888</v>
+      </c>
+      <c r="C3">
+        <v>1981</v>
+      </c>
+      <c r="D3">
+        <v>767469</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E45" si="0">C3-B3</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>2011</v>
+      </c>
+      <c r="C4">
+        <v>2014</v>
+      </c>
+      <c r="D4">
+        <v>7493222</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>1892</v>
+      </c>
+      <c r="C5">
+        <v>1905</v>
+      </c>
+      <c r="D5">
+        <v>387</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6">
+        <v>10732</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>1924</v>
+      </c>
+      <c r="C7">
+        <v>2014</v>
+      </c>
+      <c r="D7">
+        <v>6534</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>1888</v>
+      </c>
+      <c r="C8">
+        <v>1981</v>
+      </c>
+      <c r="D8">
+        <v>2162878</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>1944</v>
+      </c>
+      <c r="C9">
+        <v>1947</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>2014</v>
+      </c>
+      <c r="D10">
+        <v>5203</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>1924</v>
+      </c>
+      <c r="C11">
+        <v>1992</v>
+      </c>
+      <c r="D11">
+        <v>26298</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12">
+        <v>2014</v>
+      </c>
+      <c r="D12">
+        <v>10447</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>2011</v>
+      </c>
+      <c r="C13">
+        <v>2014</v>
+      </c>
+      <c r="D13">
+        <v>104902</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>1989</v>
+      </c>
+      <c r="C14">
+        <v>2014</v>
+      </c>
+      <c r="D14">
+        <v>1705856</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15">
+        <v>18905</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>1952</v>
+      </c>
+      <c r="C16">
+        <v>2014</v>
+      </c>
+      <c r="D16">
+        <v>27662</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>1919</v>
+      </c>
+      <c r="C17">
+        <v>1948</v>
+      </c>
+      <c r="D17">
+        <v>2375076</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>2011</v>
+      </c>
+      <c r="C18">
+        <v>2014</v>
+      </c>
+      <c r="D18">
+        <v>22021</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>1924</v>
+      </c>
+      <c r="C19">
+        <v>1944</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>2014</v>
+      </c>
+      <c r="D20">
+        <v>47509</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>1981</v>
+      </c>
+      <c r="C21">
+        <v>2014</v>
+      </c>
+      <c r="D21">
+        <v>22535</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>1888</v>
+      </c>
+      <c r="C22">
+        <v>1956</v>
+      </c>
+      <c r="D22">
+        <v>6733973</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23">
+        <v>1905</v>
+      </c>
+      <c r="C23">
+        <v>1992</v>
+      </c>
+      <c r="D23">
+        <v>132749</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>1952</v>
+      </c>
+      <c r="C24">
+        <v>2014</v>
+      </c>
+      <c r="D24">
+        <v>6005</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>1924</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
+      </c>
+      <c r="D25">
+        <v>364510</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>1924</v>
+      </c>
+      <c r="C26">
+        <v>1932</v>
+      </c>
+      <c r="D26">
+        <v>8363</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27">
+        <v>1912</v>
+      </c>
+      <c r="C27">
+        <v>1948</v>
+      </c>
+      <c r="D27">
+        <v>1560019</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>1912</v>
+      </c>
+      <c r="C28">
+        <v>1956</v>
+      </c>
+      <c r="D28">
+        <v>132467</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>1952</v>
+      </c>
+      <c r="C29">
+        <v>2013</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>1944</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+      <c r="D30">
+        <v>1357</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>2011</v>
+      </c>
+      <c r="C31">
+        <v>2014</v>
+      </c>
+      <c r="D31">
+        <v>130193</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32">
+        <v>1888</v>
+      </c>
+      <c r="C32">
+        <v>1953</v>
+      </c>
+      <c r="D32">
+        <v>3025803</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>2011</v>
+      </c>
+      <c r="C33">
+        <v>2014</v>
+      </c>
+      <c r="D33">
+        <v>54833</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34">
+        <v>1888</v>
+      </c>
+      <c r="C34">
+        <v>1948</v>
+      </c>
+      <c r="D34">
+        <v>4312508</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>2011</v>
+      </c>
+      <c r="C35">
+        <v>2013</v>
+      </c>
+      <c r="D35">
+        <v>83197</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>2011</v>
+      </c>
+      <c r="C36">
+        <v>2014</v>
+      </c>
+      <c r="D36">
+        <v>119764</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>1952</v>
+      </c>
+      <c r="C37">
+        <v>1953</v>
+      </c>
+      <c r="D37">
+        <v>353</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1890</v>
+      </c>
+      <c r="C38">
+        <v>2014</v>
+      </c>
+      <c r="D38">
+        <v>2547370</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39">
+        <v>1944</v>
+      </c>
+      <c r="C39">
+        <v>1953</v>
+      </c>
+      <c r="D39">
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>1887</v>
+      </c>
+      <c r="C40">
+        <v>1953</v>
+      </c>
+      <c r="D40">
+        <v>517560</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>1888</v>
+      </c>
+      <c r="C41">
+        <v>1953</v>
+      </c>
+      <c r="D41">
+        <v>520</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>1889</v>
+      </c>
+      <c r="C42">
+        <v>1906</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43">
+        <v>2011</v>
+      </c>
+      <c r="C43">
+        <v>2013</v>
+      </c>
+      <c r="D43">
+        <v>1742</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44">
+        <v>1888</v>
+      </c>
+      <c r="C44">
+        <v>2014</v>
+      </c>
+      <c r="D44">
+        <v>1456649</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45">
+        <v>1888</v>
+      </c>
+      <c r="C45">
+        <v>1907</v>
+      </c>
+      <c r="D45">
+        <v>833</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>